--- a/log/PSOELM_extracted_result/PSOELM_slp03_result/PSOELM_slp03_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp03_result/PSOELM_slp03_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp03_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp03_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Experiment</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>1 7 9 10 13 15 17 18</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,7 +1498,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,7 +2216,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,7 +2329,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2713,8 +2716,11 @@
       <c r="F19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
